--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E372C6-BB8F-408B-838C-448C713D3E67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5ECFF-C7AA-4C6B-906C-7C933BD62167}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -213,15 +213,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初步设计完成er图和表设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>初步设计完成APP端群主管理的用例分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未完成（50%）</t>
+    <t>初步设计完成er图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计完成数据库用户表、群组表、好友表设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计完成数据库管理员表、群成员表、群管理表、聊天信息表设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始编写网页端管理员界面网页设计（仅html+css）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库er图设计，编写网络交互API文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次审查用例分析文档中的内容，将不足之处完善</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,13 +359,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -663,12 +687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -745,18 +769,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -765,12 +789,12 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -847,29 +871,29 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -958,29 +982,29 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1057,26 +1081,26 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1121,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -1133,10 +1157,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1145,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -1153,31 +1177,129 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\天下纵横文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5ECFF-C7AA-4C6B-906C-7C933BD62167}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728899FF-3F98-44F2-AAE4-3F6770C3C55E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -233,20 +233,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.17 第七周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成数据库er图设计，编写网络交互API文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>再一次审查用例分析文档中的内容，将不足之处完善</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写网络交互API文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目评审</t>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>熟悉百度地图A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PI用法，了解各种用法并写出demo，完成 app主界面的地图功能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app端找回密码、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app端登陆注册界面、以及将短信验证功能完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建数据库，将后台环境搭建完成，配合组员完成前后端交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寻找解决聊天功能的办法，若找不到则了解环信A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PI的使用方法，写一个简单的demo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
@@ -337,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,14 +419,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -687,12 +768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -769,18 +850,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -789,12 +870,12 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -871,29 +952,29 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -982,29 +1063,29 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1081,26 +1162,26 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1177,26 +1258,26 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1217,10 +1298,10 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1232,7 +1313,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1244,7 +1325,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1253,10 +1334,10 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1268,26 +1349,222 @@
         <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D80"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A1:D1"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\天下纵横文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728899FF-3F98-44F2-AAE4-3F6770C3C55E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56EF7F-47C9-475E-BEB0-85EDDEDB4631}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="7836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -39,228 +39,167 @@
     <t>备注</t>
   </si>
   <si>
+    <t>邱志鹏</t>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析普通用户群组管理用例图</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>黄俊贤</t>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析普通用户好友管理并画出用例图</t>
+  </si>
+  <si>
+    <t>黄立根</t>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析管理员功能并画出用例图</t>
+  </si>
+  <si>
+    <t>冯德志</t>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析群主功能并画出用例图</t>
+  </si>
+  <si>
+    <t>常永伟</t>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析普通用户个人信息管理并画出用例图</t>
+  </si>
+  <si>
     <t>总结：</t>
   </si>
   <si>
     <t>日期：2018.10.08 第六周周一</t>
   </si>
   <si>
-    <t>邱志鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄俊贤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄立根</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯德志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常永伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户个人信息管理并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户好友管理并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析群主功能并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析管理员功能并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户群组管理用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱志鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄立根</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄俊贤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">修改完善普通用户群组管理用例图，合并用例图                </t>
+  </si>
+  <si>
+    <t>修改完善普通用户好友管理用例图</t>
+  </si>
+  <si>
+    <t>修改完善普通用户个人信息管理用例图</t>
   </si>
   <si>
     <t>李达波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">修改完善普通用户群组管理用例图，合并用例图                </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完善普通用户好友管理用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完善普通用户个人信息管理用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改完善普通用户群管理员用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改完善管理员用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.10.10 第六周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常永伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成APP端用户登陆、群聊创建的用例分析和界面设计          </t>
+  </si>
+  <si>
+    <t>未完成（90%）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成网页端的登陆、注册、主页面、个人信息管理的界面设计             </t>
+  </si>
+  <si>
+    <t>初步设计完成网页端的好友添加、创建群主、查询用户界面设计</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>初步设计完成个人信息管理、个人信息修改、找回密码、注册的用例分析和界面设计</t>
   </si>
   <si>
     <t>收集其他组员所需的图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成（90%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步设计完成个人信息管理、个人信息修改、找回密码、注册的用例分析和界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">初步设计完成APP端用户登陆、群聊创建的用例分析和界面设计          </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步设计完成网页端的好友添加、创建群主、查询用户界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初步设计完成网页端的登陆、注册、个人信息管理的用例分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">初步设计完成网页端的登陆、注册、主页面、个人信息管理的界面设计             </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.10.10 第六周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">初步设计完成APP端群聊管理（创建群、加入群、查询群）用例分析和主界面设计          </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新修改已做好的PC端用例分析并且初步设计完成群聊管理得各项用例分析         </t>
   </si>
   <si>
     <t>未完成（70%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">重新修改已做好的PC端用例分析并且初步设计完成群聊管理得各项用例分析         </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">重新修改已做好的PC端用例分析并且与立根一起初步设计完成群聊管理的各项用例分析        </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成好友管理（添加好友、删除好友、好友聊天）的用例分析以及界面分析</t>
   </si>
   <si>
     <t>重新修改已做好的PC端用例分析并且完成PC端个人信息管理用例分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步设计完成好友管理（添加好友、删除好友、好友聊天）的用例分析以及界面分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.10.15 第七周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">初步设计完成APP端群聊管理剩余部分的用例分析及重新整合用例分析文档        </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">完成PC端管理员的用例分析        </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初步设计完成APP端群主管理的用例分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初步设计完成er图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周三</t>
+  </si>
+  <si>
+    <t>再一次审查用例分析文档中的内容，将不足之处完善</t>
+  </si>
+  <si>
+    <t>开始编写网页端管理员界面网页设计（仅html+css）</t>
+  </si>
+  <si>
+    <t>设计完成数据库管理员表、群成员表、群管理表、聊天信息表设计</t>
+  </si>
+  <si>
+    <t>编写网络交互API文档</t>
   </si>
   <si>
     <t>设计完成数据库用户表、群组表、好友表设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计完成数据库管理员表、群成员表、群管理表、聊天信息表设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始编写网页端管理员界面网页设计（仅html+css）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再一次审查用例分析文档中的内容，将不足之处完善</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写网络交互API文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.18 第七周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周四</t>
   </si>
   <si>
     <t>项目评审</t>
   </si>
   <si>
-    <t>日期：2018.10.17 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2018.10.22 第八周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app端登陆注册界面、以及将短信验证功能完成</t>
+  </si>
+  <si>
+    <t>未完成（80%）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>熟悉百度地图A</t>
     </r>
     <r>
@@ -268,28 +207,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>PI用法，了解各种用法并写出demo，完成 app主界面的地图功能</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成app端找回密码、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成app端登陆注册界面、以及将短信验证功能完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app端找回密码界面</t>
   </si>
   <si>
     <t>创建数据库，将后台环境搭建完成，配合组员完成前后端交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>寻找解决聊天功能的办法，若找不到则了解环信A</t>
     </r>
     <r>
@@ -297,23 +235,54 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>PI的使用方法，写一个简单的demo</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+  </si>
+  <si>
+    <t>完成注册第二个界面、修改密码两个界面</t>
+  </si>
+  <si>
+    <t>完成APP主页面，包括好友、群界面。继续后台程序开发。</t>
+  </si>
+  <si>
+    <t>完成百度地图的多点标记、和标记连线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成地图的路线规划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc端显示数据的表单分页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,15 +314,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -397,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,19 +367,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,27 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -768,12 +713,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -791,13 +736,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -806,76 +751,76 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -893,37 +838,37 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -932,49 +877,49 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -992,25 +937,25 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1019,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1031,61 +976,61 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="A32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1103,25 +1048,25 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1130,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1142,46 +1087,46 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1199,25 +1144,25 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1226,10 +1171,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1238,46 +1183,46 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="A52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1295,25 +1240,25 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1322,10 +1267,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1334,46 +1279,46 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1391,25 +1336,25 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -1417,11 +1362,11 @@
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>58</v>
+      <c r="B66" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -1429,156 +1374,254 @@
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>58</v>
+      <c r="B67" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D83" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="C87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="15"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="C88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
     <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A29:D30"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A59:D60"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1592,7 +1635,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1606,7 +1649,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56EF7F-47C9-475E-BEB0-85EDDEDB4631}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B68214-AA95-4C80-B213-9ED86552044B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="7836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -251,15 +251,85 @@
     <t>完成APP主页面，包括好友、群界面。继续后台程序开发。</t>
   </si>
   <si>
-    <t>完成百度地图的多点标记、和标记连线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>完成地图的路线规划</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pc端显示数据的表单分页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>未完成(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40%)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>完成gith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ub与IDE的相关配置</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成（60%）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百度地图的多点标记、和标记连线demo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成（70%）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成（40%）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成注册第二个界面、修改密码两个界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续昨天未完成的界面，加上个人信息以及聊天信息主界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成pc端显示数据的表单分页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成百度地图的多点标记、和标记连线demo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成地图的路线规划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="A92" sqref="A92:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1533,20 +1603,22 @@
       <c r="B84" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="2"/>
+      <c r="C84" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -1555,10 +1627,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -1569,8 +1641,8 @@
       <c r="B87" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>29</v>
+      <c r="C87" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -1579,10 +1651,10 @@
         <v>12</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -1600,26 +1672,124 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A59:D60"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A59:D60"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B68214-AA95-4C80-B213-9ED86552044B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="7836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="85">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -332,11 +326,43 @@
     <t>日期：2018.10.25 第八周周四</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>日期：2018.10.25 第九周周一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将组员的代码合并形成最新版本，完成个人信息设置的剩余界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群聊剩余的界面，继续完成后台数据接口开发。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写环信EaseUI的聊天界面,修改头像和昵称的显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图的点聚合和地图功能完善</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成地图的路线规划、定位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,10 +481,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -767,30 +793,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="101.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="101.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -804,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -816,7 +842,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -828,7 +854,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -840,7 +866,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -852,7 +878,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -864,7 +890,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -872,27 +898,27 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -906,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -918,7 +944,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -930,7 +956,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -942,7 +968,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -954,7 +980,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -966,7 +992,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -974,24 +1000,24 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +1043,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1055,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1067,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1079,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1091,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1103,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
@@ -1085,24 +1111,24 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1154,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1166,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1178,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1190,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1202,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
@@ -1184,21 +1210,21 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1250,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1262,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1274,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1260,7 +1286,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1272,7 +1298,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>16</v>
       </c>
@@ -1280,21 +1306,21 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1346,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1358,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1370,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1382,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1394,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
         <v>16</v>
       </c>
@@ -1376,21 +1402,21 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1442,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1454,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1466,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1478,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1490,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="s">
         <v>16</v>
       </c>
@@ -1472,21 +1498,21 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1538,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1550,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1562,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1574,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1586,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
         <v>16</v>
       </c>
@@ -1568,21 +1594,21 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1596,7 +1622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1648,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1660,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -1646,7 +1672,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -1658,7 +1684,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="s">
         <v>16</v>
       </c>
@@ -1666,21 +1692,21 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -1702,11 +1728,11 @@
         <v>71</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -1714,11 +1740,11 @@
         <v>73</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1726,11 +1752,11 @@
         <v>74</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -1738,11 +1764,11 @@
         <v>72</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -1750,11 +1776,11 @@
         <v>75</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>16</v>
       </c>
@@ -1762,20 +1788,112 @@
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A39:D40"/>
+  <mergeCells count="22">
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A110:D111"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="A49:D50"/>
@@ -1790,6 +1908,12 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,12 +1922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,12 +1936,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CF7A2-6A05-4757-BBC4-92D157376DDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -327,43 +333,67 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.25 第九周周一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>将组员的代码合并形成最新版本，完成个人信息设置的剩余界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>完成群聊剩余的界面，继续完成后台数据接口开发。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>继续编写环信EaseUI的聊天界面,修改头像和昵称的显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图的点聚合和地图功能完善</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成地图的路线规划、定位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29 第九周周一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已完成界面的顶部栏，编写设置可见范围、个人主页界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将组员的代码合并形成最新版本，完成个人信息设置的界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台数据接口开发的一部分。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>未完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>继续编写环信EaseUI的聊天界面,修改头像和昵称的显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度地图的点聚合和地图功能完善</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完成地图的路线规划、定位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>地图的导航部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图界面、后台服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成PC端页面逻辑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +445,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,14 +520,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,9 +625,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,6 +677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,30 +869,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="101.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -830,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -842,7 +918,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -854,7 +930,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -866,7 +942,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -878,7 +954,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -890,7 +966,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -898,27 +974,27 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -944,7 +1020,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -956,7 +1032,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -968,7 +1044,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -980,7 +1056,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -992,7 +1068,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -1000,24 +1076,24 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1031,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1119,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1131,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1143,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1155,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1167,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1179,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
@@ -1111,24 +1187,24 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1230,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1242,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1254,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -1190,7 +1266,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1278,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
@@ -1210,21 +1286,21 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1326,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1338,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1350,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1362,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1374,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>16</v>
       </c>
@@ -1306,21 +1382,21 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1422,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1434,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1446,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1458,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1470,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>16</v>
       </c>
@@ -1402,21 +1478,21 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1518,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1530,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1542,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1554,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1566,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>16</v>
       </c>
@@ -1498,21 +1574,21 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1526,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1614,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1626,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1638,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1650,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1662,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>16</v>
       </c>
@@ -1594,21 +1670,21 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1724,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1736,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -1672,7 +1748,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +1760,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>16</v>
       </c>
@@ -1692,21 +1768,21 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -1728,11 +1804,11 @@
         <v>71</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -1740,11 +1816,11 @@
         <v>73</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1752,11 +1828,11 @@
         <v>74</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -1764,11 +1840,11 @@
         <v>72</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -1776,11 +1852,11 @@
         <v>75</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>16</v>
       </c>
@@ -1788,21 +1864,21 @@
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -1816,67 +1892,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>16</v>
       </c>
@@ -1884,19 +1960,126 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
     </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A103:D103"/>
+  <mergeCells count="24">
     <mergeCell ref="A110:D111"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A120:D121"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A18:D19"/>
@@ -1904,16 +2087,7 @@
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A103:D103"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1922,12 +2096,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,12 +2110,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CF7A2-6A05-4757-BBC4-92D157376DDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08019029-1223-4926-843F-A4BC9758C64E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="103">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -386,6 +386,54 @@
   </si>
   <si>
     <t>完成PC端页面逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1 第九周周四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成PC端页面逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成后台数据接口开发的一部分。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成地图界面、后台服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成地图的导航部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写剩余的界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登陆、注册、找回密码界面与后台的交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合环信EaseUI到项目中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善地图路线规划、定位、界面功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图导航功能完善</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -870,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:D113"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2068,7 @@
         <v>88</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -2032,7 +2080,7 @@
         <v>86</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D118" s="2"/>
     </row>
@@ -2044,7 +2092,7 @@
         <v>89</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -2062,18 +2110,203 @@
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
     </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A110:D111"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A120:D121"/>
+  <mergeCells count="28">
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2083,11 +2316,22 @@
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A79:D80"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A110:D111"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A130:D131"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A120:D121"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08019029-1223-4926-843F-A4BC9758C64E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455413D-FAF1-4D94-9758-61A3B78959DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="114">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -197,6 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,6 +208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,6 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,6 +438,50 @@
   </si>
   <si>
     <t>地图导航功能完善</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册、找回密码界面与后台的交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善地图标记细节、路线显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解webscoket在android端的实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.6 第十周周四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善地图标记细节、路线显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.12 第十一周周一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台与android的个人信息交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善个人信息界面与后台交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做一个环信群聊的demo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -454,6 +502,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -461,6 +510,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -469,12 +519,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -568,14 +620,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -933,12 +985,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1015,18 +1067,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1035,12 +1087,12 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1117,29 +1169,29 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1228,29 +1280,29 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1327,26 +1379,26 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1423,26 +1475,26 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1519,26 +1571,26 @@
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1615,26 +1667,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -1711,26 +1763,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -1809,26 +1861,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -1905,26 +1957,26 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -2001,26 +2053,26 @@
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2097,26 +2149,26 @@
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -2151,7 +2203,7 @@
       <c r="B126" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D126" s="2"/>
@@ -2163,7 +2215,7 @@
       <c r="B127" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D127" s="2"/>
@@ -2193,26 +2245,26 @@
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -2235,7 +2287,7 @@
       <c r="B135" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D135" s="8"/>
@@ -2289,24 +2341,313 @@
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A52:D52"/>
+  <mergeCells count="34">
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2316,6 +2657,13 @@
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A120:D121"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A150:D151"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A140:D141"/>
     <mergeCell ref="A49:D50"/>
@@ -2330,8 +2678,6 @@
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="A123:D123"/>
     <mergeCell ref="A130:D131"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A120:D121"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455413D-FAF1-4D94-9758-61A3B78959DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3890AC-CB36-447E-BBF5-9283B8D912A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -482,6 +482,26 @@
   </si>
   <si>
     <t>做一个环信群聊的demo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.12 第十一周周三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完善注册、登陆与后台的对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试环信在android端的实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解环信在android端的实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合两份地图代码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +646,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1413,7 @@
       <c r="D40" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="9"/>
@@ -1489,7 +1509,7 @@
       <c r="D50" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="9"/>
@@ -1585,7 +1605,7 @@
       <c r="D60" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B62" s="9"/>
@@ -1681,7 +1701,7 @@
       <c r="D70" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B72" s="9"/>
@@ -1777,7 +1797,7 @@
       <c r="D80" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B82" s="9"/>
@@ -1971,7 +1991,7 @@
       <c r="D100" s="10"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B103" s="9"/>
@@ -2067,7 +2087,7 @@
       <c r="D111" s="10"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B113" s="9"/>
@@ -2163,7 +2183,7 @@
       <c r="D121" s="10"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B123" s="9"/>
@@ -2259,7 +2279,7 @@
       <c r="D131" s="10"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B133" s="9"/>
@@ -2585,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>87</v>
@@ -2642,8 +2662,124 @@
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" s="8"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A180:D181"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A150:D151"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A110:D111"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A130:D131"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A160:D161"/>
     <mergeCell ref="A163:D163"/>
@@ -2660,24 +2796,6 @@
     <mergeCell ref="A113:D113"/>
     <mergeCell ref="A120:D121"/>
     <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A150:D151"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A140:D141"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A110:D111"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A130:D131"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3890AC-CB36-447E-BBF5-9283B8D912A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="124">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -485,10 +479,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.12 第十一周周三</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>更新完善注册、登陆与后台的对接</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -502,13 +492,37 @@
   </si>
   <si>
     <t>整合两份地图代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合两份地图代码，继续地图工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完善与后台的数据对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完善与前端的数据对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,26 +759,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,23 +794,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -989,22 +969,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="101.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="101.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +992,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1018,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1030,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1042,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1054,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1066,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1094,19 +1074,19 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1094,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1120,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1132,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1144,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1156,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1168,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1196,16 +1176,16 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -1213,7 +1193,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1219,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1231,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1243,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1275,7 +1255,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1267,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1279,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1307,16 +1287,16 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -1324,7 +1304,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1330,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1342,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1354,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1366,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1378,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1406,13 +1386,13 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
@@ -1420,7 +1400,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1434,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1426,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1438,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1450,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +1462,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1474,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1502,13 +1482,13 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>45</v>
       </c>
@@ -1516,7 +1496,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1522,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1534,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1546,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -1578,7 +1558,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1570,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
@@ -1598,13 +1578,13 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
         <v>51</v>
       </c>
@@ -1612,7 +1592,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1618,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1630,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1642,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1654,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -1686,7 +1666,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>16</v>
       </c>
@@ -1694,13 +1674,13 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
@@ -1708,7 +1688,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1714,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1726,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -1758,7 +1738,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -1770,7 +1750,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1762,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
@@ -1790,13 +1770,13 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="s">
         <v>60</v>
       </c>
@@ -1804,7 +1784,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1824,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1836,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -1868,7 +1848,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -1880,7 +1860,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
@@ -1888,13 +1868,13 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>76</v>
       </c>
@@ -1902,7 +1882,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1908,7 @@
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -1940,7 +1920,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +1932,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +1944,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +1956,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>16</v>
       </c>
@@ -1984,13 +1964,13 @@
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
         <v>82</v>
       </c>
@@ -1998,7 +1978,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2004,7 @@
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2016,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +2028,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>21</v>
       </c>
@@ -2060,7 +2040,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2052,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
         <v>16</v>
       </c>
@@ -2080,13 +2060,13 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
         <v>83</v>
       </c>
@@ -2094,7 +2074,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2100,7 @@
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2112,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2124,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>21</v>
       </c>
@@ -2156,7 +2136,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
@@ -2168,7 +2148,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
         <v>16</v>
       </c>
@@ -2176,13 +2156,13 @@
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="12" t="s">
         <v>91</v>
       </c>
@@ -2190,7 +2170,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -2204,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2196,7 @@
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>10</v>
       </c>
@@ -2228,7 +2208,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>8</v>
       </c>
@@ -2240,7 +2220,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>21</v>
       </c>
@@ -2252,7 +2232,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +2244,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
         <v>16</v>
       </c>
@@ -2272,13 +2252,13 @@
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="12" t="s">
         <v>97</v>
       </c>
@@ -2286,7 +2266,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -2312,7 +2292,7 @@
       </c>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2304,7 @@
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +2316,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>21</v>
       </c>
@@ -2348,7 +2328,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2340,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
         <v>16</v>
       </c>
@@ -2368,13 +2348,13 @@
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>103</v>
       </c>
@@ -2382,7 +2362,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2388,7 @@
       </c>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2400,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
@@ -2432,7 +2412,7 @@
       </c>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>21</v>
       </c>
@@ -2444,7 +2424,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2436,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="10" t="s">
         <v>16</v>
       </c>
@@ -2464,13 +2444,13 @@
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="9" t="s">
         <v>107</v>
       </c>
@@ -2478,7 +2458,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -2492,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2484,7 @@
       </c>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +2496,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2508,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>21</v>
       </c>
@@ -2540,7 +2520,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>12</v>
       </c>
@@ -2552,7 +2532,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
         <v>16</v>
       </c>
@@ -2560,13 +2540,13 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>110</v>
       </c>
@@ -2574,7 +2554,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>5</v>
       </c>
@@ -2600,19 +2580,19 @@
       </c>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +2604,7 @@
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2616,7 @@
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>12</v>
       </c>
@@ -2648,7 +2628,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="10" t="s">
         <v>16</v>
       </c>
@@ -2656,21 +2636,21 @@
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -2684,31 +2664,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>8</v>
       </c>
@@ -2720,31 +2700,31 @@
       </c>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="10" t="s">
         <v>16</v>
       </c>
@@ -2752,14 +2732,132 @@
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
     </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A192:D193"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A120:D121"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A130:D131"/>
+    <mergeCell ref="A153:D153"/>
     <mergeCell ref="A173:D173"/>
     <mergeCell ref="A180:D181"/>
     <mergeCell ref="A49:D50"/>
@@ -2776,26 +2874,6 @@
     <mergeCell ref="A140:D141"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A110:D111"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A130:D131"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A170:D171"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A120:D121"/>
-    <mergeCell ref="A69:D70"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2804,12 +2882,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2818,12 +2896,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/05项目计划表.xlsx
+++ b/第05组/05项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65696542-5F01-4BDD-9C23-2B72A159FE00}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="123">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -499,30 +505,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.15 第十一周四</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合两份地图代码，继续地图工作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新完善与后台的数据对接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新完善与前端的数据对接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
+    <t>日期：2018.11.19 第十二周周一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完善与后台的对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成APP端和后台对接工作，编写网页端界面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善头像选择功能</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,7 +728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +761,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,6 +813,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,22 +1005,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:D181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="101.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1028,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1054,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1066,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1078,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1090,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +1102,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1074,19 +1110,19 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1130,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1156,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1168,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1180,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1192,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1204,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1176,16 +1212,16 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1229,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1255,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1267,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1279,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1291,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1303,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1315,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1287,16 +1323,16 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -1304,7 +1340,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1366,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1378,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1390,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1402,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1414,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1386,13 +1422,13 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
@@ -1400,7 +1436,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1462,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1474,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1486,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1498,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1510,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1482,13 +1518,13 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>45</v>
       </c>
@@ -1496,7 +1532,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1558,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1570,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1582,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +1594,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1606,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
@@ -1578,13 +1614,13 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1628,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1654,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1666,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1678,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1690,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1702,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>16</v>
       </c>
@@ -1674,13 +1710,13 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
@@ -1688,7 +1724,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +1750,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1762,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1774,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1786,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1798,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
@@ -1770,13 +1806,13 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>60</v>
       </c>
@@ -1784,7 +1820,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1860,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1872,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -1848,7 +1884,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1896,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
@@ -1868,13 +1904,13 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>76</v>
       </c>
@@ -1882,7 +1918,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1896,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1944,7 @@
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +1956,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1932,7 +1968,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -1944,7 +1980,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1992,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>16</v>
       </c>
@@ -1964,13 +2000,13 @@
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>82</v>
       </c>
@@ -1978,7 +2014,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +2028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2040,7 @@
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
@@ -2016,7 +2052,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -2028,7 +2064,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2076,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
@@ -2052,7 +2088,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>16</v>
       </c>
@@ -2060,13 +2096,13 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>83</v>
       </c>
@@ -2074,7 +2110,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2136,7 @@
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2148,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2160,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>21</v>
       </c>
@@ -2136,7 +2172,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2184,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>16</v>
       </c>
@@ -2156,13 +2192,13 @@
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>91</v>
       </c>
@@ -2170,7 +2206,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -2196,7 +2232,7 @@
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2244,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2256,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +2268,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2280,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>16</v>
       </c>
@@ -2252,13 +2288,13 @@
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>97</v>
       </c>
@@ -2266,7 +2302,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -2280,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -2292,7 +2328,7 @@
       </c>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2340,7 @@
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -2316,7 +2352,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>21</v>
       </c>
@@ -2328,7 +2364,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -2340,7 +2376,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>16</v>
       </c>
@@ -2348,13 +2384,13 @@
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>103</v>
       </c>
@@ -2362,7 +2398,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -2376,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2424,7 @@
       </c>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
@@ -2400,7 +2436,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2448,7 @@
       </c>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +2460,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2472,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>16</v>
       </c>
@@ -2444,13 +2480,13 @@
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>107</v>
       </c>
@@ -2458,7 +2494,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2520,7 @@
       </c>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +2532,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2544,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2556,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>12</v>
       </c>
@@ -2532,7 +2568,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>16</v>
       </c>
@@ -2540,13 +2576,13 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>110</v>
       </c>
@@ -2554,7 +2590,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2616,7 @@
       </c>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2628,7 @@
       </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>8</v>
       </c>
@@ -2604,7 +2640,7 @@
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>21</v>
       </c>
@@ -2616,7 +2652,7 @@
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>12</v>
       </c>
@@ -2628,7 +2664,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>16</v>
       </c>
@@ -2636,13 +2672,13 @@
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>118</v>
       </c>
@@ -2650,7 +2686,7 @@
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -2664,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2712,7 @@
       </c>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +2724,7 @@
       </c>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>8</v>
       </c>
@@ -2700,7 +2736,7 @@
       </c>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>21</v>
       </c>
@@ -2712,7 +2748,7 @@
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -2724,7 +2760,7 @@
       </c>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>16</v>
       </c>
@@ -2732,112 +2768,112 @@
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="9" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D185" s="8"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D187" s="8"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>87</v>
+      <c r="C188" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="10" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A192:D193"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A190:D191"/>
     <mergeCell ref="A160:D161"/>
     <mergeCell ref="A163:D163"/>
     <mergeCell ref="A170:D171"/>
@@ -2882,12 +2918,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,12 +2932,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
